--- a/!Template-Share(1).xlsx
+++ b/!Template-Share(1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\Stuck-in-the-Movie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7485848-6A44-4D31-A904-4D2715A42ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A767A1F-B9E1-4211-9911-1F473ED82538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{D0007A94-825D-4D2C-80AE-41F94EDC227B}"/>
   </bookViews>
@@ -22,14 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -966,6 +958,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1063,9 +1058,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5925,21 +5917,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
@@ -6054,29 +6046,29 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="2:6" s="8" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:6" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
@@ -6130,25 +6122,25 @@
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="2:6" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
@@ -6248,25 +6240,25 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
@@ -6473,211 +6465,211 @@
       <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="71">
         <v>1</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="71">
         <v>2</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="72">
         <v>2</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="69">
         <f>SUM(C6:C8)</f>
         <v>5</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68">
+      <c r="D9" s="69"/>
+      <c r="E9" s="69">
         <f>SUMPRODUCT($C$6:$C$8,$E$6:$E$8)/3</f>
         <v>0</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51" t="s">
+      <c r="D12" s="52"/>
+      <c r="E12" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="11" t="s">
         <v>4</v>
       </c>
@@ -6923,10 +6915,10 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="68">
         <f>SUM(C14:C22)</f>
         <v>9</v>
       </c>
@@ -6976,81 +6968,81 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="27">
         <f>$D$23*$N$13</f>
         <v>9</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="59">
         <f>SUM(E23:N23)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="54"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="14" t="s">
         <v>5</v>
       </c>
@@ -7164,10 +7156,10 @@
       <c r="N31" s="17"/>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="57">
         <f>SUM(C29:C31)</f>
         <v>9</v>
       </c>
@@ -7217,81 +7209,81 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="19">
         <f>$D$32*$N$28</f>
         <v>9</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="58">
         <f>SUM(E32:N32)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
     </row>
     <row r="34" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
     </row>
     <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
     </row>
     <row r="36" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="54" t="s">
+      <c r="D36" s="64"/>
+      <c r="E36" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
     </row>
     <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="54"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="29" t="s">
         <v>5</v>
       </c>
@@ -7494,10 +7486,10 @@
       <c r="N44" s="17"/>
     </row>
     <row r="45" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="56">
+      <c r="C45" s="57">
         <f>SUM(C38:C44)</f>
         <v>16</v>
       </c>
@@ -7547,391 +7539,391 @@
       </c>
     </row>
     <row r="46" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="55"/>
-      <c r="C46" s="56"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="19">
         <f>$D$45*$N$37</f>
         <v>16</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E46" s="58">
         <f>SUM(E45:N45)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="57"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
     </row>
     <row r="47" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
     </row>
     <row r="48" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
     </row>
     <row r="49" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74" t="s">
+      <c r="D49" s="75"/>
+      <c r="E49" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
-      <c r="L49" s="74"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="75"/>
+      <c r="N49" s="75"/>
     </row>
     <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="75">
+      <c r="C50" s="76">
         <v>3</v>
       </c>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
     </row>
     <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="75">
+      <c r="C51" s="76">
         <v>3</v>
       </c>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="76"/>
     </row>
     <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="75">
+      <c r="C52" s="76">
         <v>3</v>
       </c>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
     </row>
     <row r="53" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="75">
+      <c r="C53" s="76">
         <v>3</v>
       </c>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
     </row>
     <row r="54" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="75">
+      <c r="C54" s="76">
         <v>2</v>
       </c>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
     </row>
     <row r="55" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="60">
+      <c r="C55" s="61">
         <f>SUM(C49:C54)</f>
         <v>14</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60">
+      <c r="D55" s="61"/>
+      <c r="E55" s="61">
         <f>SUMPRODUCT($C$50:$C$54,E50:E54)/3</f>
         <v>0</v>
       </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="60"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
     </row>
     <row r="56" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="73"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
     </row>
     <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
     </row>
     <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53" t="s">
+      <c r="D58" s="54"/>
+      <c r="E58" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
     </row>
     <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="50">
+      <c r="C59" s="51">
         <v>0.5</v>
       </c>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="50"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
     </row>
     <row r="60" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="30" t="str">
         <f>B4</f>
         <v>Use Case Diagram</v>
       </c>
-      <c r="C60" s="50">
+      <c r="C60" s="51">
         <v>0.3</v>
       </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="50"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="51"/>
     </row>
     <row r="61" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="30" t="str">
         <f>B11</f>
         <v>Fully Developed Use Case Description</v>
       </c>
-      <c r="C61" s="50">
+      <c r="C61" s="51">
         <v>0.3</v>
       </c>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="50"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="30" t="str">
         <f>B26</f>
         <v>Activity Diagram</v>
       </c>
-      <c r="C62" s="50">
+      <c r="C62" s="51">
         <v>0.3</v>
       </c>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="51"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="30" t="str">
         <f>B35</f>
         <v>Multi-layer Sequence Diagram</v>
       </c>
-      <c r="C63" s="50">
+      <c r="C63" s="51">
         <v>0.3</v>
       </c>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="50"/>
-      <c r="N63" s="50"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="51"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="30" t="str">
         <f>B48</f>
         <v>Updated Class Diagram</v>
       </c>
-      <c r="C64" s="50">
+      <c r="C64" s="51">
         <v>0.3</v>
       </c>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="50"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="51"/>
     </row>
     <row r="65" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="49">
+      <c r="C65" s="50">
         <f>SUM(C59:C64)</f>
         <v>2</v>
       </c>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49">
+      <c r="D65" s="50"/>
+      <c r="E65" s="50">
         <f>SUMPRODUCT($C$59:$C$64,E59:E64)/3</f>
         <v>0</v>
       </c>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="50"/>
     </row>
     <row r="66" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -8021,8 +8013,8 @@
   </sheetPr>
   <dimension ref="B1:E78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8040,16 +8032,16 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="2:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
@@ -8069,7 +8061,7 @@
       <c r="C5" s="40">
         <v>0.25</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="44">
         <v>1</v>
       </c>
       <c r="E5" s="24">
@@ -8084,7 +8076,7 @@
       <c r="C6" s="40">
         <v>0.25</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="44">
         <v>1</v>
       </c>
       <c r="E6" s="24">
@@ -8099,7 +8091,7 @@
       <c r="C7" s="40">
         <v>0.25</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="44">
         <v>1</v>
       </c>
       <c r="E7" s="24">
@@ -8114,7 +8106,7 @@
       <c r="C8" s="40">
         <v>0.25</v>
       </c>
-      <c r="D8" s="77">
+      <c r="D8" s="44">
         <v>1</v>
       </c>
       <c r="E8" s="24">
@@ -8129,7 +8121,7 @@
       <c r="C9" s="40">
         <v>0.25</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="44">
         <v>1</v>
       </c>
       <c r="E9" s="24">
@@ -8144,7 +8136,7 @@
       <c r="C10" s="40">
         <v>0.25</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="44">
         <v>1</v>
       </c>
       <c r="E10" s="24">
@@ -8159,7 +8151,7 @@
       <c r="C11" s="40">
         <v>0.75</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="44">
         <v>1</v>
       </c>
       <c r="E11" s="24">
@@ -8174,7 +8166,7 @@
       <c r="C12" s="40">
         <v>0.5</v>
       </c>
-      <c r="D12" s="77">
+      <c r="D12" s="44">
         <v>1</v>
       </c>
       <c r="E12" s="24">
@@ -8189,7 +8181,7 @@
       <c r="C13" s="40">
         <v>0.5</v>
       </c>
-      <c r="D13" s="77">
+      <c r="D13" s="44">
         <v>1</v>
       </c>
       <c r="E13" s="24">
@@ -8204,7 +8196,7 @@
       <c r="C14" s="40">
         <v>0.5</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="44">
         <v>1</v>
       </c>
       <c r="E14" s="24">
@@ -8219,10 +8211,12 @@
       <c r="C15" s="40">
         <v>0.5</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="44">
+        <v>1</v>
+      </c>
       <c r="E15" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -8245,10 +8239,12 @@
       <c r="C17" s="40">
         <v>0.5</v>
       </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="44">
+        <v>1</v>
+      </c>
       <c r="E17" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -8258,10 +8254,12 @@
       <c r="C18" s="40">
         <v>0.5</v>
       </c>
-      <c r="D18" s="40"/>
+      <c r="D18" s="44">
+        <v>1</v>
+      </c>
       <c r="E18" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -8310,10 +8308,12 @@
       <c r="C22" s="40">
         <v>0.75</v>
       </c>
-      <c r="D22" s="40"/>
+      <c r="D22" s="44">
+        <v>1</v>
+      </c>
       <c r="E22" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -8349,7 +8349,7 @@
       <c r="C25" s="40">
         <v>0.5</v>
       </c>
-      <c r="D25" s="77">
+      <c r="D25" s="44">
         <v>1</v>
       </c>
       <c r="E25" s="24">
@@ -8364,10 +8364,12 @@
       <c r="C26" s="40">
         <v>1</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="44">
+        <v>1</v>
+      </c>
       <c r="E26" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -8494,10 +8496,12 @@
       <c r="C36" s="40">
         <v>1</v>
       </c>
-      <c r="D36" s="40"/>
+      <c r="D36" s="44">
+        <v>1</v>
+      </c>
       <c r="E36" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
@@ -8507,7 +8511,7 @@
       <c r="C37" s="40">
         <v>0.5</v>
       </c>
-      <c r="D37" s="77">
+      <c r="D37" s="44">
         <v>1</v>
       </c>
       <c r="E37" s="24">
@@ -8522,7 +8526,7 @@
       <c r="C38" s="40">
         <v>0.5</v>
       </c>
-      <c r="D38" s="77">
+      <c r="D38" s="44">
         <v>1</v>
       </c>
       <c r="E38" s="24">
@@ -8537,7 +8541,7 @@
       <c r="C39" s="40">
         <v>0.5</v>
       </c>
-      <c r="D39" s="77">
+      <c r="D39" s="44">
         <v>1</v>
       </c>
       <c r="E39" s="24">
@@ -8578,10 +8582,12 @@
       <c r="C42" s="40">
         <v>0.5</v>
       </c>
-      <c r="D42" s="40"/>
+      <c r="D42" s="44">
+        <v>1</v>
+      </c>
       <c r="E42" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
@@ -8669,7 +8675,7 @@
       <c r="C49" s="40">
         <v>0.5</v>
       </c>
-      <c r="D49" s="77">
+      <c r="D49" s="44">
         <v>1</v>
       </c>
       <c r="E49" s="24">
@@ -8684,7 +8690,7 @@
       <c r="C50" s="40">
         <v>0.5</v>
       </c>
-      <c r="D50" s="77">
+      <c r="D50" s="44">
         <v>1</v>
       </c>
       <c r="E50" s="24">
@@ -8712,10 +8718,12 @@
       <c r="C52" s="40">
         <v>1</v>
       </c>
-      <c r="D52" s="40"/>
+      <c r="D52" s="44">
+        <v>1</v>
+      </c>
       <c r="E52" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
@@ -8725,7 +8733,7 @@
       <c r="C53" s="40">
         <v>1</v>
       </c>
-      <c r="D53" s="77">
+      <c r="D53" s="44">
         <v>1</v>
       </c>
       <c r="E53" s="24">
@@ -8792,7 +8800,7 @@
       <c r="C58" s="40">
         <v>0.5</v>
       </c>
-      <c r="D58" s="77">
+      <c r="D58" s="44">
         <v>1</v>
       </c>
       <c r="E58" s="24">
@@ -8807,7 +8815,7 @@
       <c r="C59" s="40">
         <v>0.5</v>
       </c>
-      <c r="D59" s="77">
+      <c r="D59" s="44">
         <v>1</v>
       </c>
       <c r="E59" s="24">
@@ -8848,7 +8856,7 @@
       <c r="C62" s="40">
         <v>0.5</v>
       </c>
-      <c r="D62" s="77">
+      <c r="D62" s="44">
         <v>1</v>
       </c>
       <c r="E62" s="24">
@@ -9049,13 +9057,13 @@
       <c r="D77" s="39"/>
       <c r="E77" s="24">
         <f>SUM(E5:E76)</f>
-        <v>6.1666666666666661</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D78" s="24">
         <f>SUM(D5:D76)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -9072,15 +9080,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A11BB22AF6CF34DBF9DBC1E516AEBDE" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc52063d2f22f38a466a207c28c5bb85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="474d620b-6aa4-4e26-a522-e740b6da795c" xmlns:ns4="82b9e9eb-2f8c-429a-b920-c2feeef499e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="809905390baf989c887da256b7aeab1d" ns3:_="" ns4:_="">
     <xsd:import namespace="474d620b-6aa4-4e26-a522-e740b6da795c"/>
@@ -9303,21 +9302,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E487B6DB-31BD-435E-AC79-B21908D8971E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A44C93AD-ABAD-4A4E-A262-66974122F927}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9336,7 +9336,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1C97E0D-F8E0-4D9F-8BA8-2570E6B5DF94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -9351,4 +9351,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E487B6DB-31BD-435E-AC79-B21908D8971E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>